--- a/biology/Botanique/Paul_Benedict_Sarasin/Paul_Benedict_Sarasin.xlsx
+++ b/biology/Botanique/Paul_Benedict_Sarasin/Paul_Benedict_Sarasin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Benedict Sarasin est un naturaliste suisse, né le 11 décembre 1856 à Bâle et mort le 7 avril 1929 dans cette même ville.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il effectue avec son cousin Fritz Sarasin une expédition scientifique à Célèbes en 1893 et en 1903[1], où ils découvrent de nombreuses espèces, ainsi que la culture préhistorique toalienne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il effectue avec son cousin Fritz Sarasin une expédition scientifique à Célèbes en 1893 et en 1903, où ils découvrent de nombreuses espèces, ainsi que la culture préhistorique toalienne.
 Il fonde de nombreuses réserves et parcs régionaux en Suisse. Il promeut la constitution d’objets préhistoriques.
 </t>
         </is>
